--- a/maps/xtehr2zibs2024/HealthProfessional-full.xlsx
+++ b/maps/xtehr2zibs2024/HealthProfessional-full.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -937,51 +937,15 @@
           <t>EHDSHealthProfessional.role</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>HealthProfessional.HealthProfessionalRole</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>HealthProfessionalRole</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>HealthProfessional.HealthProfessionalRole</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>NL: ZorgverlenerRol</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>CD</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0..1</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>data</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>NL-CM:17.1.5</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>The role the health professional fulfils in the healthcare process. For health professionals, this could be for example attender, referrer or performer.</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
@@ -1243,6 +1207,62 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr"/>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>HealthProfessional.HealthProfessionalRole</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>HealthProfessionalRole</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>HealthProfessional.HealthProfessionalRole</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NL: ZorgverlenerRol</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>CD</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0..1</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>NL-CM:17.1.5</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>The role the health professional fulfils in the healthcare process. For health professionals, this could be for example attender, referrer or performer.</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
